--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:56:36+00:00</t>
+    <t>2024-05-27T08:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:58:56+00:00</t>
+    <t>2024-05-27T09:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:10:49+00:00</t>
+    <t>2024-05-27T13:19:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:19:02+00:00</t>
+    <t>2024-06-20T14:32:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T14:32:32+00:00</t>
+    <t>2024-06-24T11:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
